--- a/data/diabetes_clinical_toy_messy.xlsx
+++ b/data/diabetes_clinical_toy_messy.xlsx
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C51">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>FEMALE</t>
         </is>
       </c>
       <c r="C187">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C220">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>FEMALE</t>
         </is>
       </c>
       <c r="C285">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C312">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C525">

--- a/data/diabetes_clinical_toy_messy.xlsx
+++ b/data/diabetes_clinical_toy_messy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnv719\Documents\HeaDS\Courses\R4DS\R4DataScience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43D7BDD-D05B-4BF7-89E0-ED09AACCB94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C387453-7773-4187-9969-8546CC46FCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>Serum_ca2</t>
   </si>
 </sst>
 </file>
@@ -417,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H533"/>
+  <dimension ref="A1:I533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="C368" sqref="C368"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +453,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9046</v>
       </c>
@@ -476,8 +482,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>51676</v>
       </c>
@@ -502,8 +511,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>31112</v>
       </c>
@@ -528,8 +540,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60182</v>
       </c>
@@ -554,8 +569,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1665</v>
       </c>
@@ -580,8 +598,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>56669</v>
       </c>
@@ -606,8 +627,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>53882</v>
       </c>
@@ -632,8 +656,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10434</v>
       </c>
@@ -658,8 +685,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>27419</v>
       </c>
@@ -684,8 +714,11 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>60491</v>
       </c>
@@ -710,8 +743,11 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12109</v>
       </c>
@@ -736,8 +772,11 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12095</v>
       </c>
@@ -762,8 +801,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12175</v>
       </c>
@@ -788,8 +830,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8213</v>
       </c>
@@ -814,8 +859,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5317</v>
       </c>
@@ -840,8 +888,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>58202</v>
       </c>
@@ -866,8 +917,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>56112</v>
       </c>
@@ -892,8 +946,11 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>34120</v>
       </c>
@@ -918,8 +975,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>27458</v>
       </c>
@@ -944,8 +1004,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>25226</v>
       </c>
@@ -970,8 +1033,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>70630</v>
       </c>
@@ -996,8 +1062,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13861</v>
       </c>
@@ -1022,8 +1091,11 @@
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>68794</v>
       </c>
@@ -1048,8 +1120,11 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>64778</v>
       </c>
@@ -1074,8 +1149,11 @@
       <c r="H25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4219</v>
       </c>
@@ -1100,8 +1178,11 @@
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>70822</v>
       </c>
@@ -1126,8 +1207,11 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>38047</v>
       </c>
@@ -1152,8 +1236,11 @@
       <c r="H28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>54827</v>
       </c>
@@ -1178,8 +1265,11 @@
       <c r="H29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>69160</v>
       </c>
@@ -1204,8 +1294,11 @@
       <c r="H30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>43717</v>
       </c>
@@ -1230,8 +1323,11 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33879</v>
       </c>
@@ -1256,8 +1352,11 @@
       <c r="H32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>39373</v>
       </c>
@@ -1282,8 +1381,11 @@
       <c r="H33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>54401</v>
       </c>
@@ -1308,8 +1410,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>14248</v>
       </c>
@@ -1334,8 +1439,11 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>712</v>
       </c>
@@ -1360,8 +1468,11 @@
       <c r="H36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>47269</v>
       </c>
@@ -1386,8 +1497,11 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24977</v>
       </c>
@@ -1412,8 +1526,11 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>47306</v>
       </c>
@@ -1438,8 +1555,11 @@
       <c r="H39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>62602</v>
       </c>
@@ -1464,8 +1584,11 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4651</v>
       </c>
@@ -1490,8 +1613,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1261</v>
       </c>
@@ -1516,8 +1642,11 @@
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>61960</v>
       </c>
@@ -1542,8 +1671,11 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1845</v>
       </c>
@@ -1568,8 +1700,11 @@
       <c r="H44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>7937</v>
       </c>
@@ -1594,8 +1729,11 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>19824</v>
       </c>
@@ -1620,8 +1758,11 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>37937</v>
       </c>
@@ -1646,8 +1787,11 @@
       <c r="H47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47472</v>
       </c>
@@ -1672,8 +1816,11 @@
       <c r="H48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>35626</v>
       </c>
@@ -1698,8 +1845,11 @@
       <c r="H49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>36338</v>
       </c>
@@ -1724,8 +1874,11 @@
       <c r="H50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>18587</v>
       </c>
@@ -1750,8 +1903,11 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>15102</v>
       </c>
@@ -1776,8 +1932,11 @@
       <c r="H52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>59190</v>
       </c>
@@ -1802,8 +1961,11 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>47167</v>
       </c>
@@ -1828,8 +1990,11 @@
       <c r="H54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>8752</v>
       </c>
@@ -1854,8 +2019,11 @@
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>25831</v>
       </c>
@@ -1880,8 +2048,11 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>38829</v>
       </c>
@@ -1906,8 +2077,11 @@
       <c r="H57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>66400</v>
       </c>
@@ -1932,8 +2106,11 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58631</v>
       </c>
@@ -1958,8 +2135,11 @@
       <c r="H59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5111</v>
       </c>
@@ -1984,8 +2164,11 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>10710</v>
       </c>
@@ -2010,8 +2193,11 @@
       <c r="H61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>55927</v>
       </c>
@@ -2036,8 +2222,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>65842</v>
       </c>
@@ -2062,8 +2251,11 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>19557</v>
       </c>
@@ -2088,8 +2280,11 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7356</v>
       </c>
@@ -2114,8 +2309,11 @@
       <c r="H65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>17013</v>
       </c>
@@ -2140,8 +2338,11 @@
       <c r="H66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>17004</v>
       </c>
@@ -2166,8 +2367,11 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>72366</v>
       </c>
@@ -2192,8 +2396,11 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6118</v>
       </c>
@@ -2218,8 +2425,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>7371</v>
       </c>
@@ -2244,8 +2454,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70676</v>
       </c>
@@ -2270,8 +2483,11 @@
       <c r="H71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2326</v>
       </c>
@@ -2296,8 +2512,11 @@
       <c r="H72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>27169</v>
       </c>
@@ -2322,8 +2541,11 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>50784</v>
       </c>
@@ -2348,8 +2570,11 @@
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>19773</v>
       </c>
@@ -2374,8 +2599,11 @@
       <c r="H75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>66159</v>
       </c>
@@ -2400,8 +2628,11 @@
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>36236</v>
       </c>
@@ -2426,8 +2657,11 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>71673</v>
       </c>
@@ -2452,8 +2686,11 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>45805</v>
       </c>
@@ -2478,8 +2715,11 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>42117</v>
       </c>
@@ -2504,8 +2744,11 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>57419</v>
       </c>
@@ -2530,8 +2773,11 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>26015</v>
       </c>
@@ -2556,8 +2802,11 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>26727</v>
       </c>
@@ -2582,8 +2831,11 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>66638</v>
       </c>
@@ -2608,8 +2860,11 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>70042</v>
       </c>
@@ -2634,8 +2889,11 @@
       <c r="H85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>32399</v>
       </c>
@@ -2660,8 +2918,11 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3253</v>
       </c>
@@ -2686,8 +2947,11 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>71796</v>
       </c>
@@ -2712,8 +2976,11 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>14499</v>
       </c>
@@ -2738,8 +3005,11 @@
       <c r="H89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>49130</v>
       </c>
@@ -2764,8 +3034,11 @@
       <c r="H90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>28291</v>
       </c>
@@ -2790,8 +3063,11 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>51169</v>
       </c>
@@ -2816,8 +3092,11 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>66315</v>
       </c>
@@ -2842,8 +3121,11 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>37726</v>
       </c>
@@ -2868,8 +3150,11 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>54385</v>
       </c>
@@ -2894,8 +3179,11 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2458</v>
       </c>
@@ -2920,8 +3208,11 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>35512</v>
       </c>
@@ -2946,8 +3237,11 @@
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>56841</v>
       </c>
@@ -2972,8 +3266,11 @@
       <c r="H98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>8154</v>
       </c>
@@ -2998,8 +3295,11 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4639</v>
       </c>
@@ -3024,8 +3324,11 @@
       <c r="H100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>12363</v>
       </c>
@@ -3050,8 +3353,11 @@
       <c r="H101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>63973</v>
       </c>
@@ -3076,8 +3382,11 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>45277</v>
       </c>
@@ -3102,8 +3411,11 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>4712</v>
       </c>
@@ -3128,8 +3440,11 @@
       <c r="H104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>33175</v>
       </c>
@@ -3154,8 +3469,11 @@
       <c r="H105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2346</v>
       </c>
@@ -3180,8 +3498,11 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>42072</v>
       </c>
@@ -3206,8 +3527,11 @@
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>12062</v>
       </c>
@@ -3232,8 +3556,11 @@
       <c r="H108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>30456</v>
       </c>
@@ -3258,8 +3585,11 @@
       <c r="H109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>59125</v>
       </c>
@@ -3284,8 +3614,11 @@
       <c r="H110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>56546</v>
       </c>
@@ -3310,8 +3643,11 @@
       <c r="H111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>48405</v>
       </c>
@@ -3336,8 +3672,11 @@
       <c r="H112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>36706</v>
       </c>
@@ -3362,8 +3701,11 @@
       <c r="H113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>41069</v>
       </c>
@@ -3388,8 +3730,11 @@
       <c r="H114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>71639</v>
       </c>
@@ -3414,8 +3759,11 @@
       <c r="H115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>53401</v>
       </c>
@@ -3440,8 +3788,11 @@
       <c r="H116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>60744</v>
       </c>
@@ -3466,8 +3817,11 @@
       <c r="H117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>7547</v>
       </c>
@@ -3492,8 +3846,11 @@
       <c r="H118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>31720</v>
       </c>
@@ -3518,8 +3875,11 @@
       <c r="H119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5563</v>
       </c>
@@ -3544,8 +3904,11 @@
       <c r="H120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>68798</v>
       </c>
@@ -3570,8 +3933,11 @@
       <c r="H121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>72918</v>
       </c>
@@ -3596,8 +3962,11 @@
       <c r="H122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>13491</v>
       </c>
@@ -3622,8 +3991,11 @@
       <c r="H123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>44033</v>
       </c>
@@ -3648,8 +4020,11 @@
       <c r="H124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14164</v>
       </c>
@@ -3674,8 +4049,11 @@
       <c r="H125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>50522</v>
       </c>
@@ -3700,8 +4078,11 @@
       <c r="H126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>3352</v>
       </c>
@@ -3726,8 +4107,11 @@
       <c r="H127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>70943</v>
       </c>
@@ -3752,8 +4136,11 @@
       <c r="H128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>37132</v>
       </c>
@@ -3778,8 +4165,11 @@
       <c r="H129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>48796</v>
       </c>
@@ -3804,8 +4194,11 @@
       <c r="H130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>53440</v>
       </c>
@@ -3830,8 +4223,11 @@
       <c r="H131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>16817</v>
       </c>
@@ -3856,8 +4252,11 @@
       <c r="H132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>69551</v>
       </c>
@@ -3879,8 +4278,11 @@
       <c r="H133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>31563</v>
       </c>
@@ -3905,8 +4307,11 @@
       <c r="H134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>20387</v>
       </c>
@@ -3931,8 +4336,11 @@
       <c r="H135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>71279</v>
       </c>
@@ -3957,8 +4365,11 @@
       <c r="H136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>55824</v>
       </c>
@@ -3983,8 +4394,11 @@
       <c r="H137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>11762</v>
       </c>
@@ -4009,8 +4423,11 @@
       <c r="H138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>29281</v>
       </c>
@@ -4035,8 +4452,11 @@
       <c r="H139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>30683</v>
       </c>
@@ -4061,8 +4481,11 @@
       <c r="H140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>20439</v>
       </c>
@@ -4087,8 +4510,11 @@
       <c r="H141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>45965</v>
       </c>
@@ -4113,8 +4539,11 @@
       <c r="H142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>8045</v>
       </c>
@@ -4139,8 +4568,11 @@
       <c r="H143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>37651</v>
       </c>
@@ -4165,8 +4597,11 @@
       <c r="H144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>17308</v>
       </c>
@@ -4191,8 +4626,11 @@
       <c r="H145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>67981</v>
       </c>
@@ -4217,8 +4655,11 @@
       <c r="H146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>41241</v>
       </c>
@@ -4243,8 +4684,11 @@
       <c r="H147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>62861</v>
       </c>
@@ -4269,8 +4713,11 @@
       <c r="H148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>72081</v>
       </c>
@@ -4295,8 +4742,11 @@
       <c r="H149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>58978</v>
       </c>
@@ -4321,8 +4771,11 @@
       <c r="H150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>11933</v>
       </c>
@@ -4347,8 +4800,11 @@
       <c r="H151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>46703</v>
       </c>
@@ -4373,8 +4829,11 @@
       <c r="H152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>32503</v>
       </c>
@@ -4399,8 +4858,11 @@
       <c r="H153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>12482</v>
       </c>
@@ -4425,8 +4887,11 @@
       <c r="H154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>56939</v>
       </c>
@@ -4451,8 +4916,11 @@
       <c r="H155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>24669</v>
       </c>
@@ -4477,8 +4945,11 @@
       <c r="H156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>43054</v>
       </c>
@@ -4503,8 +4974,11 @@
       <c r="H157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>59437</v>
       </c>
@@ -4529,8 +5003,11 @@
       <c r="H158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>66258</v>
       </c>
@@ -4555,8 +5032,11 @@
       <c r="H159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>34567</v>
       </c>
@@ -4581,8 +5061,11 @@
       <c r="H160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>50931</v>
       </c>
@@ -4607,8 +5090,11 @@
       <c r="H161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>16590</v>
       </c>
@@ -4633,8 +5119,11 @@
       <c r="H162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>69768</v>
       </c>
@@ -4659,8 +5148,11 @@
       <c r="H163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>20426</v>
       </c>
@@ -4685,8 +5177,11 @@
       <c r="H164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3512</v>
       </c>
@@ -4711,8 +5206,11 @@
       <c r="H165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>42899</v>
       </c>
@@ -4737,8 +5235,11 @@
       <c r="H166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>63453</v>
       </c>
@@ -4763,8 +5264,11 @@
       <c r="H167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>43364</v>
       </c>
@@ -4789,8 +5293,11 @@
       <c r="H168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>44993</v>
       </c>
@@ -4815,8 +5322,11 @@
       <c r="H169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>210</v>
       </c>
@@ -4841,8 +5351,11 @@
       <c r="H170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>28939</v>
       </c>
@@ -4867,8 +5380,11 @@
       <c r="H171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>60739</v>
       </c>
@@ -4893,8 +5409,11 @@
       <c r="H172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>67432</v>
       </c>
@@ -4919,8 +5438,11 @@
       <c r="H173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2182</v>
       </c>
@@ -4945,8 +5467,11 @@
       <c r="H174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>40899</v>
       </c>
@@ -4971,8 +5496,11 @@
       <c r="H175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>14431</v>
       </c>
@@ -4997,8 +5525,11 @@
       <c r="H176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>62466</v>
       </c>
@@ -5023,8 +5554,11 @@
       <c r="H177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>36841</v>
       </c>
@@ -5049,8 +5583,11 @@
       <c r="H178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>33486</v>
       </c>
@@ -5075,8 +5612,11 @@
       <c r="H179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>65105</v>
       </c>
@@ -5098,8 +5638,11 @@
       <c r="H180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>54567</v>
       </c>
@@ -5124,8 +5667,11 @@
       <c r="H181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>66204</v>
       </c>
@@ -5150,8 +5696,11 @@
       <c r="H182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>39912</v>
       </c>
@@ -5176,8 +5725,11 @@
       <c r="H183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8003</v>
       </c>
@@ -5202,8 +5754,11 @@
       <c r="H184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>28378</v>
       </c>
@@ -5228,8 +5783,11 @@
       <c r="H185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>41081</v>
       </c>
@@ -5254,8 +5812,11 @@
       <c r="H186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>16077</v>
       </c>
@@ -5280,8 +5841,11 @@
       <c r="H187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>67895</v>
       </c>
@@ -5306,8 +5870,11 @@
       <c r="H188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>30184</v>
       </c>
@@ -5332,8 +5899,11 @@
       <c r="H189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>66955</v>
       </c>
@@ -5358,8 +5928,11 @@
       <c r="H190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>24905</v>
       </c>
@@ -5384,8 +5957,11 @@
       <c r="H191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I191">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>66071</v>
       </c>
@@ -5410,8 +5986,11 @@
       <c r="H192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I192">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>36255</v>
       </c>
@@ -5436,8 +6015,11 @@
       <c r="H193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I193">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>69112</v>
       </c>
@@ -5462,8 +6044,11 @@
       <c r="H194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I194">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>23410</v>
       </c>
@@ -5488,8 +6073,11 @@
       <c r="H195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I195">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>64373</v>
       </c>
@@ -5514,8 +6102,11 @@
       <c r="H196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I196">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>58267</v>
       </c>
@@ -5540,8 +6131,11 @@
       <c r="H197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I197">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>35684</v>
       </c>
@@ -5566,8 +6160,11 @@
       <c r="H198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I198">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>18937</v>
       </c>
@@ -5592,8 +6189,11 @@
       <c r="H199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I199">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>491</v>
       </c>
@@ -5618,8 +6218,11 @@
       <c r="H200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I200">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>54695</v>
       </c>
@@ -5644,8 +6247,11 @@
       <c r="H201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I201">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>68627</v>
       </c>
@@ -5670,8 +6276,11 @@
       <c r="H202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I202">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>8580</v>
       </c>
@@ -5696,8 +6305,11 @@
       <c r="H203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I203">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>28484</v>
       </c>
@@ -5722,8 +6334,11 @@
       <c r="H204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I204">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>62019</v>
       </c>
@@ -5748,8 +6363,11 @@
       <c r="H205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I205">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>51314</v>
       </c>
@@ -5774,8 +6392,11 @@
       <c r="H206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I206">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>37060</v>
       </c>
@@ -5800,8 +6421,11 @@
       <c r="H207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I207">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>35578</v>
       </c>
@@ -5826,8 +6450,11 @@
       <c r="H208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I208">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>54921</v>
       </c>
@@ -5852,8 +6479,11 @@
       <c r="H209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I209">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>33454</v>
       </c>
@@ -5878,8 +6508,11 @@
       <c r="H210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I210">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>33943</v>
       </c>
@@ -5904,8 +6537,11 @@
       <c r="H211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I211">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>62439</v>
       </c>
@@ -5930,8 +6566,11 @@
       <c r="H212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I212">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>31179</v>
       </c>
@@ -5956,8 +6595,11 @@
       <c r="H213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I213">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>66866</v>
       </c>
@@ -5982,8 +6624,11 @@
       <c r="H214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I214">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2548</v>
       </c>
@@ -6008,8 +6653,11 @@
       <c r="H215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I215">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>68025</v>
       </c>
@@ -6034,8 +6682,11 @@
       <c r="H216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I216">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2390</v>
       </c>
@@ -6060,8 +6711,11 @@
       <c r="H217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>29552</v>
       </c>
@@ -6086,8 +6740,11 @@
       <c r="H218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I218">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>25904</v>
       </c>
@@ -6112,8 +6769,11 @@
       <c r="H219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I219">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>31421</v>
       </c>
@@ -6138,8 +6798,11 @@
       <c r="H220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I220">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>20463</v>
       </c>
@@ -6164,8 +6827,11 @@
       <c r="H221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I221">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>68023</v>
       </c>
@@ -6190,8 +6856,11 @@
       <c r="H222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I222">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>12689</v>
       </c>
@@ -6216,8 +6885,11 @@
       <c r="H223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I223">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>54724</v>
       </c>
@@ -6242,8 +6914,11 @@
       <c r="H224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I224">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>8899</v>
       </c>
@@ -6268,8 +6943,11 @@
       <c r="H225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I225">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>39186</v>
       </c>
@@ -6294,8 +6972,11 @@
       <c r="H226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I226">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>32729</v>
       </c>
@@ -6320,8 +7001,11 @@
       <c r="H227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I227">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>39105</v>
       </c>
@@ -6346,8 +7030,11 @@
       <c r="H228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I228">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>31154</v>
       </c>
@@ -6372,8 +7059,11 @@
       <c r="H229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I229">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>69959</v>
       </c>
@@ -6398,8 +7088,11 @@
       <c r="H230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I230">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>10552</v>
       </c>
@@ -6424,8 +7117,11 @@
       <c r="H231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I231">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>12917</v>
       </c>
@@ -6450,8 +7146,11 @@
       <c r="H232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I232">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>68356</v>
       </c>
@@ -6476,8 +7175,11 @@
       <c r="H233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I233">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>23368</v>
       </c>
@@ -6502,8 +7204,11 @@
       <c r="H234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I234">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>25974</v>
       </c>
@@ -6528,8 +7233,11 @@
       <c r="H235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I235">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1210</v>
       </c>
@@ -6554,8 +7262,11 @@
       <c r="H236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I236">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>28493</v>
       </c>
@@ -6580,8 +7291,11 @@
       <c r="H237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I237">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>36857</v>
       </c>
@@ -6606,8 +7320,11 @@
       <c r="H238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I238">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1836</v>
       </c>
@@ -6632,8 +7349,11 @@
       <c r="H239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I239">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>32221</v>
       </c>
@@ -6658,8 +7378,11 @@
       <c r="H240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I240">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>10548</v>
       </c>
@@ -6684,8 +7407,11 @@
       <c r="H241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I241">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>52282</v>
       </c>
@@ -6710,8 +7436,11 @@
       <c r="H242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I242">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>45535</v>
       </c>
@@ -6736,8 +7465,11 @@
       <c r="H243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I243">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>40460</v>
       </c>
@@ -6762,8 +7494,11 @@
       <c r="H244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I244">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>17739</v>
       </c>
@@ -6788,8 +7523,11 @@
       <c r="H245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I245">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>49669</v>
       </c>
@@ -6814,8 +7552,11 @@
       <c r="H246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I246">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>27153</v>
       </c>
@@ -6840,8 +7581,11 @@
       <c r="H247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I247">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>34060</v>
       </c>
@@ -6866,8 +7610,11 @@
       <c r="H248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I248">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>43424</v>
       </c>
@@ -6892,8 +7639,11 @@
       <c r="H249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I249">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>30669</v>
       </c>
@@ -6918,8 +7668,11 @@
       <c r="H250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I250">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>30468</v>
       </c>
@@ -6944,8 +7697,11 @@
       <c r="H251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I251">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>16523</v>
       </c>
@@ -6970,8 +7726,11 @@
       <c r="H252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I252">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>56543</v>
       </c>
@@ -6996,8 +7755,11 @@
       <c r="H253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I253">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>46136</v>
       </c>
@@ -7022,8 +7784,11 @@
       <c r="H254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I254">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>32257</v>
       </c>
@@ -7048,8 +7813,11 @@
       <c r="H255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I255">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>52800</v>
       </c>
@@ -7074,8 +7842,11 @@
       <c r="H256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I256">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>41413</v>
       </c>
@@ -7100,8 +7871,11 @@
       <c r="H257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I257">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>15266</v>
       </c>
@@ -7126,8 +7900,11 @@
       <c r="H258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I258">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>28674</v>
       </c>
@@ -7152,8 +7929,11 @@
       <c r="H259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I259">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>10460</v>
       </c>
@@ -7178,8 +7958,11 @@
       <c r="H260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I260">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>64908</v>
       </c>
@@ -7201,8 +7984,11 @@
       <c r="H261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I261">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>63884</v>
       </c>
@@ -7227,8 +8013,11 @@
       <c r="H262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I262">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>37893</v>
       </c>
@@ -7253,8 +8042,11 @@
       <c r="H263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I263">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>67855</v>
       </c>
@@ -7279,8 +8071,11 @@
       <c r="H264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I264">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>25774</v>
       </c>
@@ -7305,8 +8100,11 @@
       <c r="H265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I265">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>19584</v>
       </c>
@@ -7331,8 +8129,11 @@
       <c r="H266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I266">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>24447</v>
       </c>
@@ -7357,8 +8158,11 @@
       <c r="H267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I267">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>49589</v>
       </c>
@@ -7383,8 +8187,11 @@
       <c r="H268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I268">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>17986</v>
       </c>
@@ -7409,8 +8216,11 @@
       <c r="H269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I269">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>29217</v>
       </c>
@@ -7435,8 +8245,11 @@
       <c r="H270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I270">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>72911</v>
       </c>
@@ -7461,8 +8274,11 @@
       <c r="H271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I271">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>47175</v>
       </c>
@@ -7487,8 +8303,11 @@
       <c r="H272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I272">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>4057</v>
       </c>
@@ -7513,8 +8332,11 @@
       <c r="H273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I273">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>48588</v>
       </c>
@@ -7539,8 +8361,11 @@
       <c r="H274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I274">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>70336</v>
       </c>
@@ -7565,8 +8390,11 @@
       <c r="H275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I275">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>66767</v>
       </c>
@@ -7591,8 +8419,11 @@
       <c r="H276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I276">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>45801</v>
       </c>
@@ -7617,8 +8448,11 @@
       <c r="H277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I277">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>36275</v>
       </c>
@@ -7643,8 +8477,11 @@
       <c r="H278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I278">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>11577</v>
       </c>
@@ -7669,8 +8506,11 @@
       <c r="H279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I279">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>67210</v>
       </c>
@@ -7695,8 +8535,11 @@
       <c r="H280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I280">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>29908</v>
       </c>
@@ -7721,8 +8564,11 @@
       <c r="H281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I281">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>45222</v>
       </c>
@@ -7747,8 +8593,11 @@
       <c r="H282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I282">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>33759</v>
       </c>
@@ -7773,8 +8622,11 @@
       <c r="H283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I283">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>40311</v>
       </c>
@@ -7799,8 +8651,11 @@
       <c r="H284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I284">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>26325</v>
       </c>
@@ -7825,8 +8680,11 @@
       <c r="H285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I285">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>65460</v>
       </c>
@@ -7851,8 +8709,11 @@
       <c r="H286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I286">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>36811</v>
       </c>
@@ -7877,8 +8738,11 @@
       <c r="H287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I287">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>71750</v>
       </c>
@@ -7903,8 +8767,11 @@
       <c r="H288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I288">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>70970</v>
       </c>
@@ -7929,8 +8796,11 @@
       <c r="H289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I289">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>42203</v>
       </c>
@@ -7955,8 +8825,11 @@
       <c r="H290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I290">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>55680</v>
       </c>
@@ -7981,8 +8854,11 @@
       <c r="H291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I291">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>11014</v>
       </c>
@@ -8007,8 +8883,11 @@
       <c r="H292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I292">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>44338</v>
       </c>
@@ -8033,8 +8912,11 @@
       <c r="H293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I293">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>20980</v>
       </c>
@@ -8059,8 +8941,11 @@
       <c r="H294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I294">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>34974</v>
       </c>
@@ -8085,8 +8970,11 @@
       <c r="H295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I295">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>71379</v>
       </c>
@@ -8111,8 +8999,11 @@
       <c r="H296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I296">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>58261</v>
       </c>
@@ -8137,8 +9028,11 @@
       <c r="H297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I297">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>67318</v>
       </c>
@@ -8163,8 +9057,11 @@
       <c r="H298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I298">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>28526</v>
       </c>
@@ -8189,8 +9086,11 @@
       <c r="H299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I299">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>8831</v>
       </c>
@@ -8215,8 +9115,11 @@
       <c r="H300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I300">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>65199</v>
       </c>
@@ -8241,8 +9144,11 @@
       <c r="H301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I301">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>43454</v>
       </c>
@@ -8267,8 +9173,11 @@
       <c r="H302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I302">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>7282</v>
       </c>
@@ -8293,8 +9202,11 @@
       <c r="H303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I303">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>18518</v>
       </c>
@@ -8319,8 +9231,11 @@
       <c r="H304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I304">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>41648</v>
       </c>
@@ -8345,8 +9260,11 @@
       <c r="H305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I305">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>49003</v>
       </c>
@@ -8371,8 +9289,11 @@
       <c r="H306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I306">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>16371</v>
       </c>
@@ -8397,8 +9318,11 @@
       <c r="H307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I307">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>42807</v>
       </c>
@@ -8423,8 +9347,11 @@
       <c r="H308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I308">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>40181</v>
       </c>
@@ -8449,8 +9376,11 @@
       <c r="H309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I309">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>66174</v>
       </c>
@@ -8475,8 +9405,11 @@
       <c r="H310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I310">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>45538</v>
       </c>
@@ -8501,8 +9434,11 @@
       <c r="H311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I311">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>6319</v>
       </c>
@@ -8527,8 +9463,11 @@
       <c r="H312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I312">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>68249</v>
       </c>
@@ -8553,8 +9492,11 @@
       <c r="H313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I313">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>55232</v>
       </c>
@@ -8579,8 +9521,11 @@
       <c r="H314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I314">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>11120</v>
       </c>
@@ -8605,8 +9550,11 @@
       <c r="H315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I315">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>41940</v>
       </c>
@@ -8631,8 +9579,11 @@
       <c r="H316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I316">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>72214</v>
       </c>
@@ -8657,8 +9608,11 @@
       <c r="H317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I317">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>37089</v>
       </c>
@@ -8683,8 +9637,11 @@
       <c r="H318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I318">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>68614</v>
       </c>
@@ -8709,8 +9666,11 @@
       <c r="H319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I319">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1686</v>
       </c>
@@ -8735,8 +9695,11 @@
       <c r="H320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I320">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>22284</v>
       </c>
@@ -8761,8 +9724,11 @@
       <c r="H321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I321">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>39038</v>
       </c>
@@ -8787,8 +9753,11 @@
       <c r="H322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I322">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>21956</v>
       </c>
@@ -8813,8 +9782,11 @@
       <c r="H323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I323">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>52134</v>
       </c>
@@ -8839,8 +9811,11 @@
       <c r="H324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I324">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>30171</v>
       </c>
@@ -8865,8 +9840,11 @@
       <c r="H325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I325">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>4480</v>
       </c>
@@ -8891,8 +9869,11 @@
       <c r="H326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I326">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2982</v>
       </c>
@@ -8917,8 +9898,11 @@
       <c r="H327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I327">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>65535</v>
       </c>
@@ -8943,8 +9927,11 @@
       <c r="H328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I328">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>29865</v>
       </c>
@@ -8966,8 +9953,11 @@
       <c r="H329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I329">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>54918</v>
       </c>
@@ -8992,8 +9982,11 @@
       <c r="H330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I330">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>59368</v>
       </c>
@@ -9018,8 +10011,11 @@
       <c r="H331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I331">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>65836</v>
       </c>
@@ -9044,8 +10040,11 @@
       <c r="H332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I332">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>21130</v>
       </c>
@@ -9070,8 +10069,11 @@
       <c r="H333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I333">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1703</v>
       </c>
@@ -9096,8 +10098,11 @@
       <c r="H334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I334">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>16934</v>
       </c>
@@ -9122,8 +10127,11 @@
       <c r="H335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I335">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>28799</v>
       </c>
@@ -9148,8 +10156,11 @@
       <c r="H336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I336">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>32689</v>
       </c>
@@ -9174,8 +10185,11 @@
       <c r="H337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I337">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>56357</v>
       </c>
@@ -9200,8 +10214,11 @@
       <c r="H338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I338">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>18051</v>
       </c>
@@ -9226,8 +10243,11 @@
       <c r="H339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I339">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>40840</v>
       </c>
@@ -9252,8 +10272,11 @@
       <c r="H340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I340">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>10449</v>
       </c>
@@ -9278,8 +10301,11 @@
       <c r="H341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I341">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>38805</v>
       </c>
@@ -9304,8 +10330,11 @@
       <c r="H342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I342">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>31091</v>
       </c>
@@ -9330,8 +10359,11 @@
       <c r="H343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I343">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>45053</v>
       </c>
@@ -9356,8 +10388,11 @@
       <c r="H344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>61837</v>
       </c>
@@ -9382,8 +10417,11 @@
       <c r="H345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I345">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>9487</v>
       </c>
@@ -9408,8 +10446,11 @@
       <c r="H346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I346">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>49713</v>
       </c>
@@ -9434,8 +10475,11 @@
       <c r="H347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I347">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>17608</v>
       </c>
@@ -9460,8 +10504,11 @@
       <c r="H348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I348">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>28102</v>
       </c>
@@ -9486,8 +10533,11 @@
       <c r="H349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I349">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1506</v>
       </c>
@@ -9512,8 +10562,11 @@
       <c r="H350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I350">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>28333</v>
       </c>
@@ -9538,8 +10591,11 @@
       <c r="H351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I351">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>62608</v>
       </c>
@@ -9564,8 +10620,11 @@
       <c r="H352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I352">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>40670</v>
       </c>
@@ -9590,8 +10649,11 @@
       <c r="H353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I353">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>4630</v>
       </c>
@@ -9616,8 +10678,11 @@
       <c r="H354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I354">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>21284</v>
       </c>
@@ -9642,8 +10707,11 @@
       <c r="H355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I355">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>49421</v>
       </c>
@@ -9668,8 +10736,11 @@
       <c r="H356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I356">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>5973</v>
       </c>
@@ -9694,8 +10765,11 @@
       <c r="H357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I357">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>42996</v>
       </c>
@@ -9720,8 +10794,11 @@
       <c r="H358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I358">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>66333</v>
       </c>
@@ -9746,8 +10823,11 @@
       <c r="H359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I359">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>46785</v>
       </c>
@@ -9772,8 +10852,11 @@
       <c r="H360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I360">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>54312</v>
       </c>
@@ -9798,8 +10881,11 @@
       <c r="H361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I361">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>21408</v>
       </c>
@@ -9824,8 +10910,11 @@
       <c r="H362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I362">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>49916</v>
       </c>
@@ -9850,8 +10939,11 @@
       <c r="H363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I363">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>7559</v>
       </c>
@@ -9876,8 +10968,11 @@
       <c r="H364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I364">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>71038</v>
       </c>
@@ -9902,8 +10997,11 @@
       <c r="H365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I365">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>69037</v>
       </c>
@@ -9928,8 +11026,11 @@
       <c r="H366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I366">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>58617</v>
       </c>
@@ -9954,8 +11055,11 @@
       <c r="H367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I367">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>69064</v>
       </c>
@@ -9980,8 +11084,11 @@
       <c r="H368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I368">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>9404</v>
       </c>
@@ -10006,8 +11113,11 @@
       <c r="H369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I369">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>8171</v>
       </c>
@@ -10032,8 +11142,11 @@
       <c r="H370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I370">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>28286</v>
       </c>
@@ -10058,8 +11171,11 @@
       <c r="H371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I371">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>43232</v>
       </c>
@@ -10084,8 +11200,11 @@
       <c r="H372">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I372">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>10159</v>
       </c>
@@ -10110,8 +11229,11 @@
       <c r="H373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I373">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>34402</v>
       </c>
@@ -10136,8 +11258,11 @@
       <c r="H374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I374">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>58282</v>
       </c>
@@ -10162,8 +11287,11 @@
       <c r="H375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I375">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>64489</v>
       </c>
@@ -10188,8 +11316,11 @@
       <c r="H376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I376">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>22706</v>
       </c>
@@ -10214,8 +11345,11 @@
       <c r="H377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I377">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>71539</v>
       </c>
@@ -10240,8 +11374,11 @@
       <c r="H378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I378">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>28637</v>
       </c>
@@ -10266,8 +11403,11 @@
       <c r="H379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I379">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>64553</v>
       </c>
@@ -10292,8 +11432,11 @@
       <c r="H380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I380">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>31741</v>
       </c>
@@ -10318,8 +11461,11 @@
       <c r="H381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I381">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>69936</v>
       </c>
@@ -10344,8 +11490,11 @@
       <c r="H382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I382">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>46527</v>
       </c>
@@ -10370,8 +11519,11 @@
       <c r="H383">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I383">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>22537</v>
       </c>
@@ -10396,8 +11548,11 @@
       <c r="H384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I384">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>50611</v>
       </c>
@@ -10422,8 +11577,11 @@
       <c r="H385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I385">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>13547</v>
       </c>
@@ -10448,8 +11606,11 @@
       <c r="H386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I386">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>63732</v>
       </c>
@@ -10474,8 +11635,11 @@
       <c r="H387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I387">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>9608</v>
       </c>
@@ -10500,8 +11664,11 @@
       <c r="H388">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I388">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>10504</v>
       </c>
@@ -10526,8 +11693,11 @@
       <c r="H389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I389">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>37090</v>
       </c>
@@ -10552,8 +11722,11 @@
       <c r="H390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I390">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>60148</v>
       </c>
@@ -10578,8 +11751,11 @@
       <c r="H391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I391">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>9637</v>
       </c>
@@ -10604,8 +11780,11 @@
       <c r="H392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I392">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>44862</v>
       </c>
@@ -10630,8 +11809,11 @@
       <c r="H393">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I393">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>52173</v>
       </c>
@@ -10656,8 +11838,11 @@
       <c r="H394">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I394">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>5708</v>
       </c>
@@ -10682,8 +11867,11 @@
       <c r="H395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I395">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>23462</v>
       </c>
@@ -10708,8 +11896,11 @@
       <c r="H396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I396">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2374</v>
       </c>
@@ -10734,8 +11925,11 @@
       <c r="H397">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I397">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>11091</v>
       </c>
@@ -10760,8 +11954,11 @@
       <c r="H398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I398">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>70374</v>
       </c>
@@ -10786,8 +11983,11 @@
       <c r="H399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I399">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>15528</v>
       </c>
@@ -10812,8 +12012,11 @@
       <c r="H400">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I400">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>65357</v>
       </c>
@@ -10838,8 +12041,11 @@
       <c r="H401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I401">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>49465</v>
       </c>
@@ -10864,8 +12070,11 @@
       <c r="H402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I402">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>31143</v>
       </c>
@@ -10890,8 +12099,11 @@
       <c r="H403">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I403">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>66972</v>
       </c>
@@ -10916,8 +12128,11 @@
       <c r="H404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I404">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>55810</v>
       </c>
@@ -10942,8 +12157,11 @@
       <c r="H405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I405">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>37031</v>
       </c>
@@ -10968,8 +12186,11 @@
       <c r="H406">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I406">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>34608</v>
       </c>
@@ -10994,8 +12215,11 @@
       <c r="H407">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I407">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>36007</v>
       </c>
@@ -11020,8 +12244,11 @@
       <c r="H408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I408">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>14123</v>
       </c>
@@ -11046,8 +12273,11 @@
       <c r="H409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I409">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>48298</v>
       </c>
@@ -11072,8 +12302,11 @@
       <c r="H410">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I410">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>54975</v>
       </c>
@@ -11098,8 +12331,11 @@
       <c r="H411">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I411">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>27213</v>
       </c>
@@ -11124,8 +12360,11 @@
       <c r="H412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I412">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>44749</v>
       </c>
@@ -11150,8 +12389,11 @@
       <c r="H413">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I413">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>46468</v>
       </c>
@@ -11176,8 +12418,11 @@
       <c r="H414">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I414">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>10913</v>
       </c>
@@ -11202,8 +12447,11 @@
       <c r="H415">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I415">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>51983</v>
       </c>
@@ -11228,8 +12476,11 @@
       <c r="H416">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I416">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>27029</v>
       </c>
@@ -11254,8 +12505,11 @@
       <c r="H417">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I417">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>22320</v>
       </c>
@@ -11280,8 +12534,11 @@
       <c r="H418">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I418">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>45719</v>
       </c>
@@ -11306,8 +12563,11 @@
       <c r="H419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I419">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>129</v>
       </c>
@@ -11332,8 +12592,11 @@
       <c r="H420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I420">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>20351</v>
       </c>
@@ -11358,8 +12621,11 @@
       <c r="H421">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I421">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>530</v>
       </c>
@@ -11384,8 +12650,11 @@
       <c r="H422">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I422">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>55351</v>
       </c>
@@ -11410,8 +12679,11 @@
       <c r="H423">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I423">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>67431</v>
       </c>
@@ -11436,8 +12708,11 @@
       <c r="H424">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I424">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>20546</v>
       </c>
@@ -11462,8 +12737,11 @@
       <c r="H425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I425">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>6107</v>
       </c>
@@ -11488,8 +12766,11 @@
       <c r="H426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I426">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>50305</v>
       </c>
@@ -11514,8 +12795,11 @@
       <c r="H427">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I427">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>52342</v>
       </c>
@@ -11540,8 +12824,11 @@
       <c r="H428">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I428">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>59906</v>
       </c>
@@ -11566,8 +12853,11 @@
       <c r="H429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I429">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>59729</v>
       </c>
@@ -11592,8 +12882,11 @@
       <c r="H430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I430">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>53144</v>
       </c>
@@ -11618,8 +12911,11 @@
       <c r="H431">
         <v>1</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I431">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>3655</v>
       </c>
@@ -11644,8 +12940,11 @@
       <c r="H432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I432">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>11999</v>
       </c>
@@ -11670,8 +12969,11 @@
       <c r="H433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I433">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>12985</v>
       </c>
@@ -11696,8 +12998,11 @@
       <c r="H434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I434">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>38119</v>
       </c>
@@ -11722,8 +13027,11 @@
       <c r="H435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I435">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>3355</v>
       </c>
@@ -11748,8 +13056,11 @@
       <c r="H436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I436">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>22091</v>
       </c>
@@ -11774,8 +13085,11 @@
       <c r="H437">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I437">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>5010</v>
       </c>
@@ -11800,8 +13114,11 @@
       <c r="H438">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I438">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>67177</v>
       </c>
@@ -11826,8 +13143,11 @@
       <c r="H439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I439">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>58600</v>
       </c>
@@ -11852,8 +13172,11 @@
       <c r="H440">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I440">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>56681</v>
       </c>
@@ -11878,8 +13201,11 @@
       <c r="H441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I441">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>56716</v>
       </c>
@@ -11904,8 +13230,11 @@
       <c r="H442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I442">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>65946</v>
       </c>
@@ -11930,8 +13259,11 @@
       <c r="H443">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I443">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>61350</v>
       </c>
@@ -11956,8 +13288,11 @@
       <c r="H444">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I444">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>17291</v>
       </c>
@@ -11982,8 +13317,11 @@
       <c r="H445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I445">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>61465</v>
       </c>
@@ -12008,8 +13346,11 @@
       <c r="H446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I446">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>18108</v>
       </c>
@@ -12034,8 +13375,11 @@
       <c r="H447">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I447">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>48368</v>
       </c>
@@ -12060,8 +13404,11 @@
       <c r="H448">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I448">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>36471</v>
       </c>
@@ -12086,8 +13433,11 @@
       <c r="H449">
         <v>1</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I449">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>15689</v>
       </c>
@@ -12112,8 +13462,11 @@
       <c r="H450">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I450">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>8233</v>
       </c>
@@ -12138,8 +13491,11 @@
       <c r="H451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I451">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>46436</v>
       </c>
@@ -12164,8 +13520,11 @@
       <c r="H452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I452">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>23221</v>
       </c>
@@ -12190,8 +13549,11 @@
       <c r="H453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I453">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>31830</v>
       </c>
@@ -12216,8 +13578,11 @@
       <c r="H454">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I454">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>15296</v>
       </c>
@@ -12242,8 +13607,11 @@
       <c r="H455">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I455">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>7351</v>
       </c>
@@ -12268,8 +13636,11 @@
       <c r="H456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I456">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>66196</v>
       </c>
@@ -12294,8 +13665,11 @@
       <c r="H457">
         <v>1</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I457">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>17718</v>
       </c>
@@ -12320,8 +13694,11 @@
       <c r="H458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I458">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>31164</v>
       </c>
@@ -12346,8 +13723,11 @@
       <c r="H459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I459">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>48272</v>
       </c>
@@ -12372,8 +13752,11 @@
       <c r="H460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I460">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2893</v>
       </c>
@@ -12398,8 +13781,11 @@
       <c r="H461">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I461">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>34376</v>
       </c>
@@ -12424,8 +13810,11 @@
       <c r="H462">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I462">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>18498</v>
       </c>
@@ -12450,8 +13839,11 @@
       <c r="H463">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I463">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>56735</v>
       </c>
@@ -12476,8 +13868,11 @@
       <c r="H464">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I464">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>8595</v>
       </c>
@@ -12502,8 +13897,11 @@
       <c r="H465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I465">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>621</v>
       </c>
@@ -12528,8 +13926,11 @@
       <c r="H466">
         <v>1</v>
       </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I466">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>1307</v>
       </c>
@@ -12554,8 +13955,11 @@
       <c r="H467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I467">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>35846</v>
       </c>
@@ -12580,8 +13984,11 @@
       <c r="H468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I468">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>28645</v>
       </c>
@@ -12606,8 +14013,11 @@
       <c r="H469">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I469">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>5835</v>
       </c>
@@ -12632,8 +14042,11 @@
       <c r="H470">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I470">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>46474</v>
       </c>
@@ -12658,8 +14071,11 @@
       <c r="H471">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I471">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>69687</v>
       </c>
@@ -12684,8 +14100,11 @@
       <c r="H472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I472">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2953</v>
       </c>
@@ -12710,8 +14129,11 @@
       <c r="H473">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I473">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>11838</v>
       </c>
@@ -12736,8 +14158,11 @@
       <c r="H474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I474">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>9179</v>
       </c>
@@ -12762,8 +14187,11 @@
       <c r="H475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I475">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>38165</v>
       </c>
@@ -12788,8 +14216,11 @@
       <c r="H476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I476">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>63050</v>
       </c>
@@ -12814,8 +14245,11 @@
       <c r="H477">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I477">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>22470</v>
       </c>
@@ -12840,8 +14274,11 @@
       <c r="H478">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I478">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>71585</v>
       </c>
@@ -12866,8 +14303,11 @@
       <c r="H479">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I479">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>15649</v>
       </c>
@@ -12892,8 +14332,11 @@
       <c r="H480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I480">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>11974</v>
       </c>
@@ -12915,8 +14358,11 @@
       <c r="H481">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I481">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>3009</v>
       </c>
@@ -12941,8 +14387,11 @@
       <c r="H482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I482">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>32361</v>
       </c>
@@ -12967,8 +14416,11 @@
       <c r="H483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I483">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>41523</v>
       </c>
@@ -12993,8 +14445,11 @@
       <c r="H484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I484">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>53910</v>
       </c>
@@ -13019,8 +14474,11 @@
       <c r="H485">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I485">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>67548</v>
       </c>
@@ -13045,8 +14503,11 @@
       <c r="H486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I486">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>50441</v>
       </c>
@@ -13071,8 +14532,11 @@
       <c r="H487">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I487">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>16927</v>
       </c>
@@ -13097,8 +14561,11 @@
       <c r="H488">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I488">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>28265</v>
       </c>
@@ -13123,8 +14590,11 @@
       <c r="H489">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I489">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>33404</v>
       </c>
@@ -13149,8 +14619,11 @@
       <c r="H490">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I490">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>50965</v>
       </c>
@@ -13175,8 +14648,11 @@
       <c r="H491">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I491">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>21077</v>
       </c>
@@ -13201,8 +14677,11 @@
       <c r="H492">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I492">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>12982</v>
       </c>
@@ -13227,8 +14706,11 @@
       <c r="H493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I493">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>66570</v>
       </c>
@@ -13253,8 +14735,11 @@
       <c r="H494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I494">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>29158</v>
       </c>
@@ -13279,8 +14764,11 @@
       <c r="H495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I495">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>34299</v>
       </c>
@@ -13305,8 +14793,11 @@
       <c r="H496">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I496">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>54375</v>
       </c>
@@ -13331,8 +14822,11 @@
       <c r="H497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I497">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>37832</v>
       </c>
@@ -13357,8 +14851,11 @@
       <c r="H498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I498">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>21058</v>
       </c>
@@ -13383,8 +14880,11 @@
       <c r="H499">
         <v>1</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I499">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>7696</v>
       </c>
@@ -13409,8 +14909,11 @@
       <c r="H500">
         <v>1</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I500">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>34668</v>
       </c>
@@ -13435,8 +14938,11 @@
       <c r="H501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I501">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>68483</v>
       </c>
@@ -13461,8 +14967,11 @@
       <c r="H502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I502">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>6072</v>
       </c>
@@ -13487,8 +14996,11 @@
       <c r="H503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I503">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>51112</v>
       </c>
@@ -13513,8 +15025,11 @@
       <c r="H504">
         <v>1</v>
       </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I504">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>69673</v>
       </c>
@@ -13539,8 +15054,11 @@
       <c r="H505">
         <v>1</v>
       </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I505">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>71238</v>
       </c>
@@ -13565,8 +15083,11 @@
       <c r="H506">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I506">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>63958</v>
       </c>
@@ -13591,8 +15112,11 @@
       <c r="H507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I507">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>34511</v>
       </c>
@@ -13617,8 +15141,11 @@
       <c r="H508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I508">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>24892</v>
       </c>
@@ -13643,8 +15170,11 @@
       <c r="H509">
         <v>1</v>
       </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I509">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>29496</v>
       </c>
@@ -13669,8 +15199,11 @@
       <c r="H510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I510">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>19939</v>
       </c>
@@ -13695,8 +15228,11 @@
       <c r="H511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I511">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>27832</v>
       </c>
@@ -13718,8 +15254,11 @@
       <c r="H512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I512">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>27757</v>
       </c>
@@ -13744,8 +15283,11 @@
       <c r="H513">
         <v>1</v>
       </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I513">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>31279</v>
       </c>
@@ -13770,8 +15312,11 @@
       <c r="H514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I514">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>25099</v>
       </c>
@@ -13796,8 +15341,11 @@
       <c r="H515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I515">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>67733</v>
       </c>
@@ -13822,8 +15370,11 @@
       <c r="H516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I516">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>9201</v>
       </c>
@@ -13848,8 +15399,11 @@
       <c r="H517">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I517">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>33123</v>
       </c>
@@ -13874,8 +15428,11 @@
       <c r="H518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I518">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>21713</v>
       </c>
@@ -13900,8 +15457,11 @@
       <c r="H519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I519">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>22622</v>
       </c>
@@ -13926,8 +15486,11 @@
       <c r="H520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I520">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>6726</v>
       </c>
@@ -13952,8 +15515,11 @@
       <c r="H521">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I521">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>17242</v>
       </c>
@@ -13978,8 +15544,11 @@
       <c r="H522">
         <v>1</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I522">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>16380</v>
       </c>
@@ -14004,8 +15573,11 @@
       <c r="H523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I523">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>9729</v>
       </c>
@@ -14030,8 +15602,11 @@
       <c r="H524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I524">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>56974</v>
       </c>
@@ -14056,8 +15631,11 @@
       <c r="H525">
         <v>1</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I525">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>29933</v>
       </c>
@@ -14082,8 +15660,11 @@
       <c r="H526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I526">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>65574</v>
       </c>
@@ -14108,8 +15689,11 @@
       <c r="H527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I527">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>17019</v>
       </c>
@@ -14134,8 +15718,11 @@
       <c r="H528">
         <v>1</v>
       </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I528">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>41800</v>
       </c>
@@ -14160,8 +15747,11 @@
       <c r="H529">
         <v>1</v>
       </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I529">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>61843</v>
       </c>
@@ -14186,8 +15776,11 @@
       <c r="H530">
         <v>1</v>
       </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I530">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>7621</v>
       </c>
@@ -14212,8 +15805,11 @@
       <c r="H531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I531">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>6855</v>
       </c>
@@ -14238,8 +15834,11 @@
       <c r="H532">
         <v>1</v>
       </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I532">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>5374</v>
       </c>
@@ -14263,6 +15862,9 @@
       </c>
       <c r="H533">
         <v>1</v>
+      </c>
+      <c r="I533">
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
